--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62944021-0586-4753-B847-C2B0B141C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2535720-4EE6-4100-9EF2-8DE05A379EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="60" windowWidth="17175" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="765" yWindow="45" windowWidth="14130" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -471,6 +471,34 @@
   </si>
   <si>
     <t>D、(阪本さん)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardReplyDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardReply.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板返信DAO</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板返信モデル</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -478,7 +506,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +519,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -568,41 +604,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,603 +952,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:G29"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f>ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B29" si="0">ROW()-2</f>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B31" si="0">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
+      <c r="F28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
+      <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1533,6 +1604,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1703,36 +1789,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1755,9 +1815,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2535720-4EE6-4100-9EF2-8DE05A379EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1525FD68-1990-4CA3-9A26-CFA51AF243C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="45" windowWidth="14130" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -422,18 +422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ResistServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -451,29 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B、E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A、(阪本さん)</t>
-    <rPh sb="3" eb="5">
-      <t>サカモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B、(阪本さん)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C、(阪本さん)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D、(阪本さん)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BoardReplyDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,6 +463,67 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丑澤</t>
+    <rPh sb="0" eb="2">
+      <t>ウシザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神野、阪本</t>
+    <rPh sb="0" eb="2">
+      <t>カミノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川戸</t>
+    <rPh sb="0" eb="2">
+      <t>カワト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丑澤、阪本</t>
+    <rPh sb="0" eb="2">
+      <t>ウシザワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤、阪本</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川戸、阪本</t>
+    <rPh sb="0" eb="2">
+      <t>カワト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サカモト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -954,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" zoomScaleNormal="51" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1005,7 +1031,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1020,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1047,7 +1073,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1068,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1089,7 +1115,7 @@
         <v>61</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1110,7 +1136,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1131,7 +1157,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1152,7 +1178,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1173,7 +1199,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1194,7 +1220,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1209,13 +1235,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1236,7 +1262,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1257,7 +1283,7 @@
         <v>57</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1278,7 +1304,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1299,7 +1325,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1320,7 +1346,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1335,13 +1361,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1362,7 +1388,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1383,7 +1409,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1404,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1425,7 +1451,7 @@
         <v>44</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1446,7 +1472,7 @@
         <v>45</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1467,7 +1493,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1488,7 +1514,7 @@
         <v>47</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1509,7 +1535,7 @@
         <v>48</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1530,7 +1556,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1572,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1593,7 +1619,7 @@
         <v>37</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1604,21 +1630,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1789,10 +1800,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1815,20 +1852,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1525FD68-1990-4CA3-9A26-CFA51AF243C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F4D5DA-FC77-43BB-B0FD-38CCB0D7848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>borad.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypage.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -271,10 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページjap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マイページ講師用jsp</t>
     <rPh sb="5" eb="8">
       <t>コウシヨウ</t>
@@ -525,6 +517,14 @@
     <rPh sb="3" eb="5">
       <t>サカモト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -980,7 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1028,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1046,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1067,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1088,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1112,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1130,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1151,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1172,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1196,10 +1198,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1217,10 +1219,10 @@
         <v>26</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1235,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1259,10 +1261,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1277,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1298,13 +1300,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1322,10 +1324,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1343,10 +1345,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1361,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1385,10 +1387,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1409,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1427,10 +1429,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1448,10 +1450,10 @@
         <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1469,10 +1471,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1490,10 +1492,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1511,10 +1513,10 @@
         <v>25</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1532,10 +1534,10 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1553,10 +1555,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1574,10 +1576,10 @@
         <v>31</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1592,13 +1594,13 @@
         <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1613,13 +1615,13 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1630,6 +1632,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1800,36 +1817,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1852,9 +1843,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1525FD68-1990-4CA3-9A26-CFA51AF243C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70777F3-2C28-4B8B-A290-AB61F95054A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="14445" yWindow="60" windowWidth="8010" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>borad.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mypage.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +521,10 @@
     <rPh sb="3" eb="5">
       <t>サカモト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -980,7 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
   <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1028,10 +1030,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1046,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1067,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1088,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1112,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1130,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1151,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1172,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1196,10 +1198,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1217,10 +1219,10 @@
         <v>26</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1235,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1259,10 +1261,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1277,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1298,13 +1300,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1322,10 +1324,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1343,10 +1345,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1361,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1385,10 +1387,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1409,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1427,10 +1429,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1448,10 +1450,10 @@
         <v>29</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1469,10 +1471,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1490,10 +1492,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1511,10 +1513,10 @@
         <v>25</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1532,10 +1534,10 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1553,10 +1555,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1574,10 +1576,10 @@
         <v>31</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1592,13 +1594,13 @@
         <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1613,13 +1615,13 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F4D5DA-FC77-43BB-B0FD-38CCB0D7848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1861E17-712E-4CE0-B81C-06B10C52E4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="540" yWindow="45" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -525,6 +525,37 @@
   </si>
   <si>
     <t>board.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川戸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇（リアクショングラフ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇（エラー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -557,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +631,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -630,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,6 +693,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -992,10 +1035,11 @@
     <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="27.25" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,8 +1058,11 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1035,8 +1082,9 @@
       <c r="G3" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <f>ROW()-2</f>
         <v>2</v>
@@ -1056,8 +1104,9 @@
       <c r="G4" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <f t="shared" ref="B5:B31" si="0">ROW()-2</f>
         <v>3</v>
@@ -1077,8 +1126,9 @@
       <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1098,8 +1148,9 @@
       <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1119,8 +1170,11 @@
       <c r="G7" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1134,14 +1188,15 @@
       <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1161,8 +1216,9 @@
       <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1182,8 +1238,9 @@
       <c r="G10" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1197,14 +1254,15 @@
       <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1218,14 +1276,17 @@
       <c r="E12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1239,14 +1300,15 @@
       <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1260,14 +1322,15 @@
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1281,14 +1344,15 @@
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1302,14 +1366,15 @@
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="10" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1323,14 +1388,15 @@
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1344,14 +1410,15 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1365,14 +1432,15 @@
       <c r="E19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1386,14 +1454,15 @@
       <c r="E20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1413,8 +1482,11 @@
       <c r="G21" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1434,8 +1506,11 @@
       <c r="G22" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1455,8 +1530,11 @@
       <c r="G23" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1476,8 +1554,11 @@
       <c r="G24" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1497,8 +1578,11 @@
       <c r="G25" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1516,10 +1600,13 @@
         <v>77</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1539,8 +1626,11 @@
       <c r="G27" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1560,8 +1650,11 @@
       <c r="G28" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1575,14 +1668,15 @@
       <c r="E29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1602,8 +1696,9 @@
       <c r="G30" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1617,12 +1712,13 @@
       <c r="E31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="10" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="H31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1632,21 +1728,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1817,15 +1904,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1842,7 +1930,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1859,4 +1947,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1861E17-712E-4CE0-B81C-06B10C52E4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5DD9B-48B1-4262-98E3-493B0C5EB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="45" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1170" yWindow="645" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -556,6 +556,40 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(動作は〇→中身に着手)</t>
+    <rPh sb="6" eb="8">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>positionごとで分岐させたい</t>
+    <rPh sb="11" eb="13">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇（掲示板の表示）</t>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/11着手</t>
+    <rPh sb="4" eb="6">
+      <t>チャクシュ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -667,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,6 +733,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1082,7 +1119,9 @@
       <c r="G3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
@@ -1104,7 +1143,9 @@
       <c r="G4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
@@ -1171,7 +1212,7 @@
         <v>73</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1194,7 +1235,9 @@
       <c r="G8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
@@ -1216,7 +1259,9 @@
       <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
@@ -1238,7 +1283,9 @@
       <c r="G10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
@@ -1283,7 +1330,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1306,7 +1353,9 @@
       <c r="G13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
@@ -1350,7 +1399,9 @@
       <c r="G15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
@@ -1372,7 +1423,9 @@
       <c r="G16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
@@ -1394,7 +1447,9 @@
       <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
@@ -1416,7 +1471,9 @@
       <c r="G18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
@@ -1438,7 +1495,9 @@
       <c r="G19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
@@ -1531,7 +1590,7 @@
         <v>71</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1674,7 +1733,9 @@
       <c r="G29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="3">

--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5DD9B-48B1-4262-98E3-493B0C5EB802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2420AE1-E5CC-4F3D-8ACE-690820E3DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="645" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -590,6 +590,22 @@
     <rPh sb="4" eb="6">
       <t>チャクシュ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1058,11 +1074,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:H31"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1149,7 +1163,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B31" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B33" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1695,23 +1709,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
@@ -1725,17 +1735,11 @@
         <v>16</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
@@ -1749,15 +1753,17 @@
         <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
@@ -1771,15 +1777,61 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2420AE1-E5CC-4F3D-8ACE-690820E3DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768F815-76C5-4D42-A736-9FCEB66F37D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="645" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="450" yWindow="30" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -586,13 +586,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/11着手</t>
-    <rPh sb="4" eb="6">
-      <t>チャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>board.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -606,6 +599,34 @@
   </si>
   <si>
     <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎（修正があれば報告お願いします）</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神野</t>
+    <rPh sb="0" eb="2">
+      <t>カミノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッター</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1074,9 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:H33"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1086,7 +1109,7 @@
     <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1158,12 +1181,12 @@
         <v>70</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B33" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B35" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1181,7 +1204,9 @@
       <c r="G5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
@@ -1203,7 +1228,9 @@
       <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
@@ -1344,7 +1371,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1368,7 +1395,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1391,7 +1418,9 @@
       <c r="G14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
@@ -1414,7 +1443,7 @@
         <v>81</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1438,7 +1467,7 @@
         <v>81</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1462,7 +1491,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1486,7 +1515,7 @@
         <v>73</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
@@ -1510,7 +1539,7 @@
         <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1533,54 +1562,42 @@
       <c r="G20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -1595,16 +1612,16 @@
         <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1619,16 +1636,16 @@
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1643,16 +1660,16 @@
         <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1667,16 +1684,16 @@
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
@@ -1691,16 +1708,16 @@
         <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1709,19 +1726,23 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="G28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
@@ -1729,17 +1750,23 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
@@ -1747,23 +1774,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
@@ -1777,17 +1800,11 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
@@ -1801,15 +1818,17 @@
         <v>16</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
@@ -1823,15 +1842,61 @@
         <v>16</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1841,9 +1906,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2018,27 +2086,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2063,9 +2119,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B768F815-76C5-4D42-A736-9FCEB66F37D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADDC3B-6BF9-48E0-934A-A5A6BD5EA9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="30" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -551,14 +551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇（エラー）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(動作は〇→中身に着手)</t>
     <rPh sb="6" eb="8">
       <t>ナカミ</t>
@@ -569,23 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>positionごとで分岐させたい</t>
-    <rPh sb="11" eb="13">
-      <t>ブンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇（掲示板の表示）</t>
-    <rPh sb="2" eb="5">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>board.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,6 +602,19 @@
   </si>
   <si>
     <t>フッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇（掲示板の表示）6/15着手</t>
+    <rPh sb="2" eb="5">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チャクシュ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1098,7 +1086,7 @@
   <dimension ref="B2:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1181,7 +1169,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1229,7 +1217,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
@@ -1253,7 +1241,7 @@
         <v>73</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
@@ -1277,7 +1265,7 @@
         <v>72</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
@@ -1301,7 +1289,7 @@
         <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
@@ -1325,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1348,7 +1336,9 @@
       <c r="G11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
@@ -1371,7 +1361,7 @@
         <v>73</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1395,7 +1385,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1419,7 +1409,7 @@
         <v>71</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
@@ -1443,7 +1433,7 @@
         <v>81</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
@@ -1467,7 +1457,7 @@
         <v>81</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
@@ -1491,7 +1481,7 @@
         <v>70</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
@@ -1515,7 +1505,7 @@
         <v>73</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
@@ -1539,7 +1529,7 @@
         <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -1563,7 +1553,7 @@
         <v>71</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
@@ -1574,10 +1564,10 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>80</v>
@@ -1591,10 +1581,10 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>80</v>
@@ -1621,7 +1611,7 @@
         <v>70</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
@@ -1645,7 +1635,7 @@
         <v>71</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1669,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1774,13 +1764,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="3" t="s">
@@ -1800,7 +1790,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="3"/>
@@ -1827,7 +1817,7 @@
         <v>74</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
@@ -1851,7 +1841,7 @@
         <v>71</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
@@ -1896,7 +1886,9 @@
       <c r="G35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1906,12 +1898,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2086,15 +2075,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2119,18 +2120,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADDC3B-6BF9-48E0-934A-A5A6BD5EA9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB71CB3B-A8D9-43C6-BBAE-3F29B97B5BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="97">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -615,6 +615,18 @@
     <rPh sb="13" eb="15">
       <t>チャクシュ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardPostServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardReplyServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1083,18 +1095,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011BBD92-841D-46CA-9C67-E2375B6DD0D8}">
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="60" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.125" style="2" customWidth="1"/>
@@ -1174,7 +1184,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B35" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B38" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1245,52 +1255,26 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
@@ -1304,16 +1288,16 @@
         <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -1328,13 +1312,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>80</v>
@@ -1349,19 +1333,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
@@ -1373,19 +1357,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
@@ -1400,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>89</v>
@@ -1424,13 +1408,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>89</v>
@@ -1445,16 +1429,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>89</v>
@@ -1469,16 +1453,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>89</v>
@@ -1496,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>89</v>
@@ -1520,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>89</v>
@@ -1544,98 +1528,98 @@
         <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="5" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -1650,16 +1634,16 @@
         <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
@@ -1674,15 +1658,15 @@
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1698,16 +1682,16 @@
         <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -1722,16 +1706,16 @@
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
@@ -1746,16 +1730,16 @@
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
@@ -1764,19 +1748,23 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
@@ -1784,41 +1772,34 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
@@ -1826,23 +1807,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
@@ -1856,15 +1833,11 @@
         <v>16</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="3">
@@ -1878,15 +1851,85 @@
         <v>16</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1898,9 +1941,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2075,27 +2121,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2120,9 +2154,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/03_ファイル構成一覧表_USK³.xlsx
+++ b/documents/03_ファイル構成一覧表_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB71CB3B-A8D9-43C6-BBAE-3F29B97B5BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE41502-59C1-4C2D-803D-8EE00E9F15DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-450" yWindow="45" windowWidth="15945" windowHeight="10875" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
